--- a/static/outputs/worm_log.xlsx
+++ b/static/outputs/worm_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,371 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>detected_detected_detected_IMG_1339_99_102.jpg</t>
+          <t>DSC08091.JPG</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>detected_DSC08092_117.jpg</t>
+          <t>DSC08091.JPG</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>detected_DSC08092_117.jpg</t>
+          <t>DSC08082.JPG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>detected_DSC08092_117.jpg</t>
+          <t>DSC08082.JPG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>detected_DSC08090_140.jpg</t>
+          <t>DSC08082.JPG</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>detected_DSC08086_168.jpg</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>detected_DSC08087_149.jpg</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>detected_DSC08086_168.jpg</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>detected_DSC08087_149.jpg</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>detected_DSC08082_112.jpg</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>detected_DSC08086_168.jpg</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>detected_DSC08087_149.jpg</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>detected_DSC08091_109.jpg</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>detected_DSC08092_117.jpg</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>detected_DSC08074_147.jpg</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>detected_DSC08075_37.jpg</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>detected_DSC08076_106.jpg</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>detected_DSC08077_92.jpg</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>detected_DSC08078_89.jpg</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>detected_DSC08079_44.jpg</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>detected_DSC08080_59.jpg</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>detected_DSC08082_112.jpg</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>detected_DSC08084_173.jpg</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>detected_DSC08086_168.jpg</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>detected_DSC08087_149.jpg</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>detected_DSC08090_140.jpg</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>detected_DSC08091_109.jpg</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>detected_DSC08092_117.jpg</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>detected_DSC08093_119.jpg</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>detected_DSC08094_111.jpg</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>detected_DSC08095_176.jpg</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>detected_DSC08096_39.jpg</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
